--- a/lsj7087/6step_def/CheckListForm_6step.xlsx
+++ b/lsj7087/6step_def/CheckListForm_6step.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/작업용/6step_def/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4B528C63-EC1A-48E5-84BF-32CDA6858D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053900E2-1D67-4998-8F13-7E67EA5E5181}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{4B528C63-EC1A-48E5-84BF-32CDA6858D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D144B57D-3349-4317-A8E7-9EB99B7FDCDB}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="4650" windowWidth="21580" windowHeight="12750" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +174,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -579,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,36 +640,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,6 +675,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,6 +706,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1041,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1036,11 +1056,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1076,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1">
         <v>15596</v>
       </c>
@@ -1069,10 +1089,10 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1084,96 +1104,96 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="17"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="17"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:6" ht="7.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="1">
         <v>4673</v>
       </c>
@@ -1183,10 +1203,10 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1198,96 +1218,96 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="39"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="39"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="29" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="40"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="17"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="1">
         <v>1065</v>
       </c>
@@ -1297,10 +1317,10 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1312,92 +1332,119 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="16"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="16"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="17"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="16"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="17"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
@@ -1411,33 +1458,6 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/lsj7087/6step_def/CheckListForm_6step.xlsx
+++ b/lsj7087/6step_def/CheckListForm_6step.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/작업용/6step_def/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/algorithm-study/lsj7087/6step_def/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{4B528C63-EC1A-48E5-84BF-32CDA6858D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D144B57D-3349-4317-A8E7-9EB99B7FDCDB}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{4B528C63-EC1A-48E5-84BF-32CDA6858D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E3CF38-40B2-4C4F-8D94-B8737F296557}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="4520" yWindow="4520" windowWidth="21600" windowHeight="12760" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,13 +639,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,18 +705,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,9 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,21 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,11 +1056,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1076,10 +1076,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1">
         <v>15596</v>
       </c>
@@ -1089,10 +1089,10 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1104,96 +1104,96 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:6" ht="7.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1">
         <v>4673</v>
       </c>
@@ -1203,10 +1203,10 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1218,96 +1218,96 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="36"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="36"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="36"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="21" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="37"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="1">
         <v>1065</v>
       </c>
@@ -1317,10 +1317,10 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1332,119 +1332,92 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
@@ -1458,6 +1431,33 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
